--- a/tests/Auto_ETL_Metadata_Mapping_V1.xlsx
+++ b/tests/Auto_ETL_Metadata_Mapping_V1.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="target_table" sheetId="1" r:id="rId1"/>
     <sheet name="joins_and_filters" sheetId="2" r:id="rId2"/>
+    <sheet name="select_sources" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -507,7 +508,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,61 +524,220 @@
         <v>reference_table</v>
       </c>
       <c r="D1" t="str">
+        <v>reference_subquery</v>
+      </c>
+      <c r="E1" t="str">
         <v>reference_table_alias</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>join_type</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>join_condition</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>filter_condition</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>schema.table_one</v>
+        <v>schema.employee</v>
       </c>
       <c r="B2" t="str">
-        <v>table1</v>
+        <v>emp</v>
       </c>
       <c r="C2" t="str">
-        <v>schema.table_two</v>
-      </c>
-      <c r="D2" t="str">
-        <v>table2</v>
+        <v>schema.department</v>
       </c>
       <c r="E2" t="str">
-        <v>inner</v>
+        <v>dept</v>
       </c>
       <c r="F2" t="str">
-        <v>table1.col1=table2.col1 and table1.col3=table2.col3</v>
+        <v>inner join</v>
       </c>
       <c r="G2" t="str">
-        <v>table1.col4&gt;30</v>
+        <v>emp.dept_id=dept.id</v>
+      </c>
+      <c r="H2" t="str">
+        <v>emp.id &gt; 30</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" t="str">
-        <v>schema.table_three</v>
+      <c r="A3" t="str">
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>table3</v>
+        <v>select * from schema.hr_dept</v>
       </c>
       <c r="E3" t="str">
-        <v>left</v>
+        <v>hrdept</v>
       </c>
       <c r="F3" t="str">
-        <v>table2.col1=table3.col1 and table2.col3=table3.col3</v>
+        <v>left join</v>
       </c>
       <c r="G3" t="str">
-        <v>table3.col2='test'</v>
+        <v>hrdept.emp_id=emp.id</v>
+      </c>
+      <c r="H3" t="str">
+        <v>hrdept.dept_id = 2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>source_table</v>
+      </c>
+      <c r="B1" t="str">
+        <v>table_alias</v>
+      </c>
+      <c r="C1" t="str">
+        <v>transformation</v>
+      </c>
+      <c r="D1" t="str">
+        <v>arguments</v>
+      </c>
+      <c r="E1" t="str">
+        <v>column_alias</v>
+      </c>
+      <c r="F1" t="str">
+        <v>comments</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>schema.employee</v>
+      </c>
+      <c r="B2" t="str">
+        <v>emp</v>
+      </c>
+      <c r="C2" t="str">
+        <v>sum</v>
+      </c>
+      <c r="D2" t="str">
+        <v>column_1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>sum_col</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>schema.employee</v>
+      </c>
+      <c r="B3" t="str">
+        <v>emp</v>
+      </c>
+      <c r="C3" t="str">
+        <v>avg</v>
+      </c>
+      <c r="D3" t="str">
+        <v>column_2 * column_3</v>
+      </c>
+      <c r="E3" t="str">
+        <v>avg_col</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>schema.employee</v>
+      </c>
+      <c r="B4" t="str">
+        <v>emp</v>
+      </c>
+      <c r="C4" t="str">
+        <v>any_value</v>
+      </c>
+      <c r="D4" t="str">
+        <v>column_4</v>
+      </c>
+      <c r="E4" t="str">
+        <v>any_val_col</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>schema.employee</v>
+      </c>
+      <c r="B5" t="str">
+        <v>emp</v>
+      </c>
+      <c r="C5" t="str">
+        <v>count</v>
+      </c>
+      <c r="D5" t="str">
+        <v>distinct column_5</v>
+      </c>
+      <c r="E5" t="str">
+        <v>count_col</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>schema.employee</v>
+      </c>
+      <c r="B6" t="str">
+        <v>emp</v>
+      </c>
+      <c r="C6" t="str">
+        <v>max</v>
+      </c>
+      <c r="D6" t="str">
+        <v>column_6/column_7</v>
+      </c>
+      <c r="E6" t="str">
+        <v>max_col</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>schema.employee</v>
+      </c>
+      <c r="B7" t="str">
+        <v>emp</v>
+      </c>
+      <c r="C7" t="str">
+        <v>min</v>
+      </c>
+      <c r="D7" t="str">
+        <v>column_8</v>
+      </c>
+      <c r="E7" t="str">
+        <v>min_col</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>schema.employee</v>
+      </c>
+      <c r="B8" t="str">
+        <v>emp</v>
+      </c>
+      <c r="C8" t="str">
+        <v>percentile_cont</v>
+      </c>
+      <c r="D8" t="str">
+        <v>column_9</v>
+      </c>
+      <c r="E8" t="str">
+        <v>cont_col</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
   </ignoredErrors>
 </worksheet>
 </file>